--- a/output/VERSA_18832847000106.xlsx
+++ b/output/VERSA_18832847000106.xlsx
@@ -1340,10 +1340,10 @@
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>15.45286541</v>
+        <v>15.15195352</v>
       </c>
       <c r="C87">
-        <v>0.511622671286742</v>
+        <v>0.4839761049502012</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERSA_18832847000106.xlsx
+++ b/output/VERSA_18832847000106.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERSA LONG BIASED FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,964 +383,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41578</v>
       </c>
       <c r="B2">
-        <v>0.003230040000000045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41608</v>
       </c>
       <c r="B3">
-        <v>0.01719979999999999</v>
-      </c>
-      <c r="C3">
         <v>0.01392478239586992</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41639</v>
       </c>
       <c r="B4">
-        <v>-0.004167130000000019</v>
-      </c>
-      <c r="C4">
         <v>-0.02100563724058935</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41670</v>
       </c>
       <c r="B5">
-        <v>-0.02872041000000003</v>
-      </c>
-      <c r="C5">
         <v>-0.02465602486087848</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41698</v>
       </c>
       <c r="B6">
-        <v>-0.04903469999999999</v>
-      </c>
-      <c r="C6">
         <v>-0.02091497670614073</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41729</v>
       </c>
       <c r="B7">
-        <v>-0.08138526000000001</v>
-      </c>
-      <c r="C7">
         <v>-0.03401865451872954</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41759</v>
       </c>
       <c r="B8">
-        <v>-0.07841425000000002</v>
-      </c>
-      <c r="C8">
         <v>0.003234228529797045</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41790</v>
       </c>
       <c r="B9">
-        <v>-0.02164935000000001</v>
-      </c>
-      <c r="C9">
         <v>0.06159481090066765</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41820</v>
       </c>
       <c r="B10">
-        <v>-0.02853240000000001</v>
-      </c>
-      <c r="C10">
         <v>-0.007035360992503015</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41851</v>
       </c>
       <c r="B11">
-        <v>-0.04338291999999999</v>
-      </c>
-      <c r="C11">
         <v>-0.0152866858349161</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41882</v>
       </c>
       <c r="B12">
-        <v>-0.01871283999999995</v>
-      </c>
-      <c r="C12">
         <v>0.02578887677815667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41912</v>
       </c>
       <c r="B13">
-        <v>-0.03810519000000001</v>
-      </c>
-      <c r="C13">
         <v>-0.01976215606448983</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41943</v>
       </c>
       <c r="B14">
-        <v>-0.2242193</v>
-      </c>
-      <c r="C14">
         <v>-0.1934869676654145</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41973</v>
       </c>
       <c r="B15">
-        <v>-0.12627816</v>
-      </c>
-      <c r="C15">
         <v>0.1262484874913747</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42004</v>
       </c>
       <c r="B16">
-        <v>-0.15930899</v>
-      </c>
-      <c r="C16">
         <v>-0.03780474344100171</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42035</v>
       </c>
       <c r="B17">
-        <v>-0.39137313</v>
-      </c>
-      <c r="C17">
         <v>-0.2760397544872045</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
       <c r="B18">
-        <v>-0.40035583</v>
-      </c>
-      <c r="C18">
         <v>-0.01475896060914961</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42094</v>
       </c>
       <c r="B19">
-        <v>-0.34995972</v>
-      </c>
-      <c r="C19">
         <v>0.08404335858047274</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42124</v>
       </c>
       <c r="B20">
-        <v>-0.19524298</v>
-      </c>
-      <c r="C20">
         <v>0.2380110044872912</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42155</v>
       </c>
       <c r="B21">
-        <v>-0.1289309</v>
-      </c>
-      <c r="C21">
         <v>0.08240012618964165</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42185</v>
       </c>
       <c r="B22">
-        <v>-0.20454123</v>
-      </c>
-      <c r="C22">
         <v>-0.08680175889605091</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42216</v>
       </c>
       <c r="B23">
-        <v>-0.29687945</v>
-      </c>
-      <c r="C23">
         <v>-0.1160817172208687</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42247</v>
       </c>
       <c r="B24">
-        <v>-0.33046133</v>
-      </c>
-      <c r="C24">
         <v>-0.047761198275317</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42277</v>
       </c>
       <c r="B25">
-        <v>-0.24811202</v>
-      </c>
-      <c r="C25">
         <v>0.1229941057773407</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42308</v>
       </c>
       <c r="B26">
-        <v>-0.09263728999999998</v>
-      </c>
-      <c r="C26">
         <v>0.2067791135589108</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42338</v>
       </c>
       <c r="B27">
-        <v>-0.23977088</v>
-      </c>
-      <c r="C27">
         <v>-0.1621552091335118</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42369</v>
       </c>
       <c r="B28">
-        <v>-0.3276675999999999</v>
-      </c>
-      <c r="C28">
         <v>-0.1156187229449984</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42400</v>
       </c>
       <c r="B29">
-        <v>-0.6201582400000001</v>
-      </c>
-      <c r="C29">
         <v>-0.435038739766223</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42429</v>
       </c>
       <c r="B30">
-        <v>-0.54695788</v>
-      </c>
-      <c r="C30">
         <v>0.1927127759728158</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42460</v>
       </c>
       <c r="B31">
-        <v>-0.17973377</v>
-      </c>
-      <c r="C31">
         <v>0.8105738821811976</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42490</v>
       </c>
       <c r="B32">
-        <v>0.01873367999999997</v>
-      </c>
-      <c r="C32">
         <v>0.2419549199288626</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42521</v>
       </c>
       <c r="B33">
-        <v>-0.07893154000000002</v>
-      </c>
-      <c r="C33">
         <v>-0.09586923640337486</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42551</v>
       </c>
       <c r="B34">
-        <v>-0.01650138000000001</v>
-      </c>
-      <c r="C34">
         <v>0.06778015175983776</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42582</v>
       </c>
       <c r="B35">
-        <v>0.21264913</v>
-      </c>
-      <c r="C35">
         <v>0.2329952532114381</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42613</v>
       </c>
       <c r="B36">
-        <v>0.32803855</v>
-      </c>
-      <c r="C36">
         <v>0.09515482850344359</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42643</v>
       </c>
       <c r="B37">
-        <v>0.4214022399999999</v>
-      </c>
-      <c r="C37">
         <v>0.07030194266574563</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42674</v>
       </c>
       <c r="B38">
-        <v>0.4810042000000001</v>
-      </c>
-      <c r="C38">
         <v>0.04193180390654239</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42704</v>
       </c>
       <c r="B39">
-        <v>0.77495738</v>
-      </c>
-      <c r="C39">
         <v>0.1984823405632474</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42735</v>
       </c>
       <c r="B40">
-        <v>0.8969254200000001</v>
-      </c>
-      <c r="C40">
         <v>0.06871603869158815</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42766</v>
       </c>
       <c r="B41">
-        <v>1.02527625</v>
-      </c>
-      <c r="C41">
         <v>0.06766255997560511</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42794</v>
       </c>
       <c r="B42">
-        <v>1.18721195</v>
-      </c>
-      <c r="C42">
         <v>0.07995733915311543</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42825</v>
       </c>
       <c r="B43">
-        <v>1.58723317</v>
-      </c>
-      <c r="C43">
         <v>0.1828909265057739</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42855</v>
       </c>
       <c r="B44">
-        <v>1.73872152</v>
-      </c>
-      <c r="C44">
         <v>0.0585522602897055</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42886</v>
       </c>
       <c r="B45">
-        <v>1.41544791</v>
-      </c>
-      <c r="C45">
         <v>-0.1180381457695632</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42916</v>
       </c>
       <c r="B46">
-        <v>1.71506622</v>
-      </c>
-      <c r="C46">
         <v>0.1240425466264765</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42947</v>
       </c>
       <c r="B47">
-        <v>2.39078702</v>
-      </c>
-      <c r="C47">
         <v>0.24887820231508</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42978</v>
       </c>
       <c r="B48">
-        <v>2.89048852</v>
-      </c>
-      <c r="C48">
         <v>0.1473703588732034</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43008</v>
       </c>
       <c r="B49">
-        <v>3.53563558</v>
-      </c>
-      <c r="C49">
         <v>0.1658267481534685</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43039</v>
       </c>
       <c r="B50">
-        <v>4.01228842</v>
-      </c>
-      <c r="C50">
         <v>0.1050906386972121</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43069</v>
       </c>
       <c r="B51">
-        <v>3.42004338</v>
-      </c>
-      <c r="C51">
         <v>-0.1181586114711252</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43100</v>
       </c>
       <c r="B52">
-        <v>4.02626201</v>
-      </c>
-      <c r="C52">
         <v>0.1371521901217176</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43131</v>
       </c>
       <c r="B53">
-        <v>5.64606047</v>
-      </c>
-      <c r="C53">
         <v>0.3222670160802064</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43159</v>
       </c>
       <c r="B54">
-        <v>6.27558165</v>
-      </c>
-      <c r="C54">
         <v>0.09472095278723813</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43190</v>
       </c>
       <c r="B55">
-        <v>6.1225289</v>
-      </c>
-      <c r="C55">
         <v>-0.02103649678648034</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43220</v>
       </c>
       <c r="B56">
-        <v>6.1622058</v>
-      </c>
-      <c r="C56">
         <v>0.00557061972749584</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43251</v>
       </c>
       <c r="B57">
-        <v>5.37601989</v>
-      </c>
-      <c r="C57">
         <v>-0.1097686846697423</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43281</v>
       </c>
       <c r="B58">
-        <v>4.64853227</v>
-      </c>
-      <c r="C58">
         <v>-0.1140974514745438</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43312</v>
       </c>
       <c r="B59">
-        <v>5.28955562</v>
-      </c>
-      <c r="C59">
         <v>0.1134849407525824</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43343</v>
       </c>
       <c r="B60">
-        <v>4.06634067</v>
-      </c>
-      <c r="C60">
         <v>-0.1944835253718609</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43373</v>
       </c>
       <c r="B61">
-        <v>3.15575377</v>
-      </c>
-      <c r="C61">
         <v>-0.1797326629438838</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43404</v>
       </c>
       <c r="B62">
-        <v>4.44944427</v>
-      </c>
-      <c r="C62">
         <v>0.3113010470781574</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43434</v>
       </c>
       <c r="B63">
-        <v>5.07113612</v>
-      </c>
-      <c r="C63">
         <v>0.1140835320442686</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43465</v>
       </c>
       <c r="B64">
-        <v>5.20924832</v>
-      </c>
-      <c r="C64">
         <v>0.02274898754864352</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43496</v>
       </c>
       <c r="B65">
-        <v>6.54702641</v>
-      </c>
-      <c r="C65">
         <v>0.2154492816289879</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43524</v>
       </c>
       <c r="B66">
-        <v>6.23938586</v>
-      </c>
-      <c r="C66">
         <v>-0.04076314740231579</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43555</v>
       </c>
       <c r="B67">
-        <v>6.20155136</v>
-      </c>
-      <c r="C67">
         <v>-0.005226202986229556</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43585</v>
       </c>
       <c r="B68">
-        <v>5.40772632</v>
-      </c>
-      <c r="C68">
         <v>-0.1102297269459451</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43616</v>
       </c>
       <c r="B69">
-        <v>5.12244815</v>
-      </c>
-      <c r="C69">
         <v>-0.04452096668198524</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43646</v>
       </c>
       <c r="B70">
-        <v>6.07071995</v>
-      </c>
-      <c r="C70">
         <v>0.1548844149868382</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43677</v>
       </c>
       <c r="B71">
-        <v>6.30855059</v>
-      </c>
-      <c r="C71">
         <v>0.03363598638919374</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43708</v>
       </c>
       <c r="B72">
-        <v>5.42568742</v>
-      </c>
-      <c r="C72">
         <v>-0.1207986671403749</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43738</v>
       </c>
       <c r="B73">
-        <v>5.22974896</v>
-      </c>
-      <c r="C73">
         <v>-0.03049299587622956</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43769</v>
       </c>
       <c r="B74">
-        <v>5.42288221</v>
-      </c>
-      <c r="C74">
         <v>0.03100177089639899</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43799</v>
       </c>
       <c r="B75">
-        <v>5.80556214</v>
-      </c>
-      <c r="C75">
         <v>0.05958071742374371</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43830</v>
       </c>
       <c r="B76">
-        <v>8.410847589999999</v>
-      </c>
-      <c r="C76">
         <v>0.3828170834981164</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43861</v>
       </c>
       <c r="B77">
-        <v>6.88608614</v>
-      </c>
-      <c r="C77">
         <v>-0.162021692033374</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43890</v>
       </c>
       <c r="B78">
-        <v>8.34455249</v>
-      </c>
-      <c r="C78">
         <v>0.1849417219274756</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43921</v>
       </c>
       <c r="B79">
-        <v>6.91671188</v>
-      </c>
-      <c r="C79">
         <v>-0.152799249779804</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43951</v>
       </c>
       <c r="B80">
-        <v>8.66413088</v>
-      </c>
-      <c r="C80">
         <v>0.220725349928991</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>10.09476764</v>
-      </c>
-      <c r="C81">
         <v>0.1480357393504175</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44012</v>
       </c>
       <c r="B82">
-        <v>12.29080636</v>
-      </c>
-      <c r="C82">
         <v>0.1979346293006277</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44043</v>
       </c>
       <c r="B83">
-        <v>14.32324819</v>
-      </c>
-      <c r="C83">
         <v>0.1529208819200643</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44074</v>
       </c>
       <c r="B84">
-        <v>14.02459459</v>
-      </c>
-      <c r="C84">
         <v>-0.01949022793971988</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44104</v>
       </c>
       <c r="B85">
-        <v>11.07144181</v>
-      </c>
-      <c r="C85">
         <v>-0.1965545733903227</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44135</v>
       </c>
       <c r="B86">
-        <v>9.88424097</v>
-      </c>
-      <c r="C86">
         <v>-0.09834789072308825</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>15.15195352</v>
-      </c>
-      <c r="C87">
-        <v>0.4839761049502012</v>
+        <v>0.3644452269049681</v>
       </c>
     </row>
   </sheetData>
